--- a/Backup Database/permission.xlsx
+++ b/Backup Database/permission.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="158">
   <si>
     <t>Controller Name</t>
     <phoneticPr fontId="1"/>
@@ -165,10 +165,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ReturnPurchaseListPartialView</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ReturnPurchaseList</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -216,9 +212,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WaitingExport2ProviderPartialView</t>
-  </si>
-  <si>
     <t>EditCancelTicket</t>
   </si>
   <si>
@@ -226,10 +219,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ExportCancelListPartialView</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SaleExportList</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -238,26 +227,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SaleExportListPartialView</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ExportList</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ExportListPartialView</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PagingContent</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IndexPartialView</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>XuatHuy</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -278,10 +255,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CollectionPartialView</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IndexPagingContent</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -349,10 +322,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>showDetailPartialView</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>checkNumber</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -418,6 +387,262 @@
   </si>
   <si>
     <t>KhachHang</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UpdateDebit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showDebitHist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showOrderHist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Delete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CancelHist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Warning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Show</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kho</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AddNew</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KhuVuc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NguoiDung</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>changePass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResetPassword</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NhaCungCap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PhanQuyen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QuanLyKho</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FifoReport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ImExDetail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExportReportDetail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExportReport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ImportRepoter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ImportRepoterDetail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Inventory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Report</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DownloadDebitColecction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>downloadReportByArea</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>downloadReportBycustomer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReportByArea</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReportDebitColecction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Return2ProviderReport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MonthlyReport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WeeklyReport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WeReport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DayReport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MthReport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SaleReport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SanPham</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ListPriceProducts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>importConvertCsv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>importCsv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>downloadConvertCSVTemplate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>downloadCSVTemplate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExportExcel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SearchAdvance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>downloadWarningList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ConvertUnitOfProducts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AddNewConvertUnitOfProducts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EditConvertUnitOfProducts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeleteConvertUnit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SmsMaster</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Config</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SmsMessage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TraHang</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReturnToProvider</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EditReturnToProvider</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeleteReturn2Provider</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReturnNoBill</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ListOfToProvider</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShowReturnBill</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deleteGetReturn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EditGetReturn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReturnPurchaseList</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -856,11 +1081,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G232"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1533,21 +1758,21 @@
         <v>1</v>
       </c>
       <c r="E29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
       </c>
       <c r="G29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -1556,21 +1781,21 @@
         <v>1</v>
       </c>
       <c r="E30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
       </c>
       <c r="G30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
@@ -1590,7 +1815,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>40</v>
@@ -1613,10 +1838,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -1636,22 +1861,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
       </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -1659,10 +1884,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -1682,10 +1907,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
@@ -1705,10 +1930,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1720,15 +1945,15 @@
         <v>0</v>
       </c>
       <c r="F37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>46</v>
@@ -1751,7 +1976,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>47</v>
@@ -1774,7 +1999,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>48</v>
@@ -1797,7 +2022,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>49</v>
@@ -1820,7 +2045,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>50</v>
@@ -1843,10 +2068,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
@@ -1866,10 +2091,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="4">
         <v>1</v>
@@ -1889,10 +2114,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
@@ -1912,10 +2137,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C46" s="4">
         <v>1</v>
@@ -1935,10 +2160,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
@@ -1958,10 +2183,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
@@ -1981,10 +2206,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -2004,10 +2229,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -2027,33 +2252,33 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="4" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
       </c>
       <c r="D51" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
       </c>
       <c r="G51" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="4" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -2065,18 +2290,18 @@
         <v>0</v>
       </c>
       <c r="F52" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="4" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -2088,18 +2313,18 @@
         <v>0</v>
       </c>
       <c r="F53" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="4" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
@@ -2111,53 +2336,53 @@
         <v>0</v>
       </c>
       <c r="F54" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="4" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>
       </c>
       <c r="D55" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
       </c>
       <c r="G55" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="4" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
       </c>
       <c r="D56" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="4">
         <v>0</v>
@@ -2165,10 +2390,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C57" s="4">
         <v>1</v>
@@ -2180,47 +2405,47 @@
         <v>1</v>
       </c>
       <c r="F57" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
       </c>
       <c r="D58" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="4">
         <v>0</v>
       </c>
       <c r="G58" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C59" s="4">
         <v>1</v>
       </c>
       <c r="D59" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="4">
         <v>0</v>
@@ -2229,38 +2454,38 @@
         <v>0</v>
       </c>
       <c r="G59" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C60" s="4">
         <v>1</v>
       </c>
       <c r="D60" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="4">
         <v>0</v>
       </c>
       <c r="G60" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
@@ -2269,22 +2494,22 @@
         <v>1</v>
       </c>
       <c r="E61" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="C62" s="4">
         <v>1</v>
       </c>
@@ -2292,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="4">
         <v>0</v>
@@ -2303,10 +2528,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C63" s="4">
         <v>1</v>
@@ -2326,22 +2551,22 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C64" s="4">
         <v>1</v>
       </c>
       <c r="D64" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="4">
         <v>0</v>
@@ -2349,22 +2574,22 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C65" s="4">
         <v>1</v>
       </c>
       <c r="D65" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="4">
         <v>0</v>
@@ -2372,10 +2597,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C66" s="4">
         <v>1</v>
@@ -2384,10 +2609,10 @@
         <v>1</v>
       </c>
       <c r="E66" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="4">
         <v>0</v>
@@ -2395,10 +2620,10 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C67" s="4">
         <v>1</v>
@@ -2407,21 +2632,21 @@
         <v>1</v>
       </c>
       <c r="E67" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C68" s="4">
         <v>1</v>
@@ -2433,18 +2658,18 @@
         <v>1</v>
       </c>
       <c r="F68" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C69" s="4">
         <v>1</v>
@@ -2453,21 +2678,21 @@
         <v>1</v>
       </c>
       <c r="E69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C70" s="4">
         <v>1</v>
@@ -2476,21 +2701,21 @@
         <v>1</v>
       </c>
       <c r="E70" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C71" s="4">
         <v>1</v>
@@ -2502,30 +2727,30 @@
         <v>1</v>
       </c>
       <c r="F71" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" s="4">
         <v>1</v>
       </c>
       <c r="D72" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" s="4">
         <v>0</v>
@@ -2533,10 +2758,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C73" s="4">
         <v>1</v>
@@ -2556,11 +2781,11 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="C74" s="4">
         <v>1</v>
       </c>
@@ -2568,41 +2793,41 @@
         <v>1</v>
       </c>
       <c r="E74" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="4">
         <v>1</v>
       </c>
       <c r="G74" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C75" s="4">
         <v>1</v>
       </c>
       <c r="D75" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>74</v>
@@ -2625,10 +2850,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C77" s="4">
         <v>1</v>
@@ -2648,33 +2873,33 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C78" s="4">
         <v>1</v>
       </c>
       <c r="D78" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="4">
         <v>1</v>
       </c>
       <c r="G78" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C79" s="4">
         <v>1</v>
@@ -2694,10 +2919,10 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C80" s="4">
         <v>1</v>
@@ -2709,18 +2934,18 @@
         <v>1</v>
       </c>
       <c r="F80" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C81" s="4">
         <v>1</v>
@@ -2740,33 +2965,33 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C82" s="4">
         <v>1</v>
       </c>
       <c r="D82" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="4">
         <v>1</v>
       </c>
       <c r="G82" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C83" s="4">
         <v>1</v>
@@ -2778,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="4">
         <v>0</v>
@@ -2786,56 +3011,56 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C84" s="4">
         <v>1</v>
       </c>
       <c r="D84" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" s="4">
         <v>1</v>
       </c>
       <c r="G84" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
       </c>
       <c r="D85" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" s="4">
         <v>1</v>
       </c>
       <c r="G85" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C86" s="4">
         <v>1</v>
@@ -2855,10 +3080,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C87" s="4">
         <v>1</v>
@@ -2878,10 +3103,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
@@ -2901,10 +3126,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C89" s="4">
         <v>1</v>
@@ -2913,21 +3138,21 @@
         <v>1</v>
       </c>
       <c r="E89" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C90" s="4">
         <v>1</v>
@@ -2947,16 +3172,16 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
       </c>
       <c r="D91" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" s="4">
         <v>0</v>
@@ -2970,7 +3195,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>89</v>
@@ -2993,7 +3218,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>90</v>
@@ -3016,7 +3241,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>91</v>
@@ -3039,7 +3264,7 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>92</v>
@@ -3062,10 +3287,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -3085,10 +3310,10 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="4" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="C97" s="4">
         <v>1</v>
@@ -3100,18 +3325,18 @@
         <v>1</v>
       </c>
       <c r="F97" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="4" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="C98" s="4">
         <v>1</v>
@@ -3120,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" s="4">
         <v>0</v>
@@ -3131,22 +3356,22 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="4" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
       </c>
       <c r="D99" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" s="4">
         <v>0</v>
       </c>
       <c r="F99" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" s="4">
         <v>0</v>
@@ -3154,10 +3379,10 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="4" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C100" s="4">
         <v>1</v>
@@ -3169,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="F100" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" s="4">
         <v>0</v>
@@ -3177,22 +3402,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="4" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C101" s="4">
         <v>1</v>
       </c>
       <c r="D101" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" s="4">
         <v>0</v>
       </c>
       <c r="F101" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" s="4">
         <v>0</v>
@@ -3200,22 +3425,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="4" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C102" s="4">
         <v>1</v>
       </c>
       <c r="D102" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" s="4">
         <v>0</v>
@@ -3223,22 +3448,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="4" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C103" s="4">
         <v>1</v>
       </c>
       <c r="D103" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" s="4">
         <v>0</v>
       </c>
       <c r="F103" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" s="4">
         <v>0</v>
@@ -3246,22 +3471,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="4" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C104" s="4">
         <v>1</v>
       </c>
       <c r="D104" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" s="4">
         <v>0</v>
       </c>
       <c r="F104" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" s="4">
         <v>0</v>
@@ -3269,22 +3494,22 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="4" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C105" s="4">
         <v>1</v>
       </c>
       <c r="D105" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" s="4">
         <v>0</v>
       </c>
       <c r="F105" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" s="4">
         <v>0</v>
@@ -3292,11 +3517,11 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="C106" s="4">
         <v>1</v>
       </c>
@@ -3314,9 +3539,11 @@
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="4"/>
+      <c r="A107" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="B107" s="4" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C107" s="4">
         <v>1</v>
@@ -3328,1136 +3555,1785 @@
         <v>1</v>
       </c>
       <c r="F107" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
+      <c r="A108" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" s="4">
+        <v>1</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0</v>
+      </c>
+      <c r="E108" s="4">
+        <v>0</v>
+      </c>
+      <c r="F108" s="4">
+        <v>0</v>
+      </c>
+      <c r="G108" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
+      <c r="A109" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" s="4">
+        <v>1</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0</v>
+      </c>
+      <c r="E109" s="4">
+        <v>0</v>
+      </c>
+      <c r="F109" s="4">
+        <v>0</v>
+      </c>
+      <c r="G109" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
+      <c r="A110" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" s="4">
+        <v>1</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0</v>
+      </c>
+      <c r="E110" s="4">
+        <v>0</v>
+      </c>
+      <c r="F110" s="4">
+        <v>0</v>
+      </c>
+      <c r="G110" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
+      <c r="A111" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C111" s="4">
+        <v>1</v>
+      </c>
+      <c r="D111" s="4">
+        <v>1</v>
+      </c>
+      <c r="E111" s="4">
+        <v>1</v>
+      </c>
+      <c r="F111" s="4">
+        <v>1</v>
+      </c>
+      <c r="G111" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
+      <c r="A112" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C112" s="4">
+        <v>1</v>
+      </c>
+      <c r="D112" s="4">
+        <v>0</v>
+      </c>
+      <c r="E112" s="4">
+        <v>0</v>
+      </c>
+      <c r="F112" s="4">
+        <v>0</v>
+      </c>
+      <c r="G112" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
+      <c r="A113" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C113" s="4">
+        <v>1</v>
+      </c>
+      <c r="D113" s="4">
+        <v>0</v>
+      </c>
+      <c r="E113" s="4">
+        <v>0</v>
+      </c>
+      <c r="F113" s="4">
+        <v>0</v>
+      </c>
+      <c r="G113" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
+      <c r="A114" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C114" s="4">
+        <v>1</v>
+      </c>
+      <c r="D114" s="4">
+        <v>0</v>
+      </c>
+      <c r="E114" s="4">
+        <v>0</v>
+      </c>
+      <c r="F114" s="4">
+        <v>0</v>
+      </c>
+      <c r="G114" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
+      <c r="A115" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C115" s="4">
+        <v>1</v>
+      </c>
+      <c r="D115" s="4">
+        <v>0</v>
+      </c>
+      <c r="E115" s="4">
+        <v>0</v>
+      </c>
+      <c r="F115" s="4">
+        <v>0</v>
+      </c>
+      <c r="G115" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
+      <c r="A116" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C116" s="4">
+        <v>1</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0</v>
+      </c>
+      <c r="E116" s="4">
+        <v>0</v>
+      </c>
+      <c r="F116" s="4">
+        <v>0</v>
+      </c>
+      <c r="G116" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
+      <c r="A117" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C117" s="4">
+        <v>1</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0</v>
+      </c>
+      <c r="E117" s="4">
+        <v>0</v>
+      </c>
+      <c r="F117" s="4">
+        <v>0</v>
+      </c>
+      <c r="G117" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
+      <c r="A118" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C118" s="4">
+        <v>1</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0</v>
+      </c>
+      <c r="E118" s="4">
+        <v>0</v>
+      </c>
+      <c r="F118" s="4">
+        <v>0</v>
+      </c>
+      <c r="G118" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
+      <c r="A119" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C119" s="4">
+        <v>1</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1</v>
+      </c>
+      <c r="E119" s="4">
+        <v>1</v>
+      </c>
+      <c r="F119" s="4">
+        <v>1</v>
+      </c>
+      <c r="G119" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
+      <c r="A120" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C120" s="4">
+        <v>1</v>
+      </c>
+      <c r="D120" s="4">
+        <v>1</v>
+      </c>
+      <c r="E120" s="4">
+        <v>1</v>
+      </c>
+      <c r="F120" s="4">
+        <v>1</v>
+      </c>
+      <c r="G120" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
+      <c r="A121" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C121" s="4">
+        <v>1</v>
+      </c>
+      <c r="D121" s="4">
+        <v>0</v>
+      </c>
+      <c r="E121" s="4">
+        <v>0</v>
+      </c>
+      <c r="F121" s="4">
+        <v>0</v>
+      </c>
+      <c r="G121" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
+      <c r="A122" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C122" s="4">
+        <v>1</v>
+      </c>
+      <c r="D122" s="4">
+        <v>1</v>
+      </c>
+      <c r="E122" s="4">
+        <v>1</v>
+      </c>
+      <c r="F122" s="4">
+        <v>1</v>
+      </c>
+      <c r="G122" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
+      <c r="A123" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C123" s="4">
+        <v>1</v>
+      </c>
+      <c r="D123" s="4">
+        <v>0</v>
+      </c>
+      <c r="E123" s="4">
+        <v>0</v>
+      </c>
+      <c r="F123" s="4">
+        <v>0</v>
+      </c>
+      <c r="G123" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
+      <c r="A124" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C124" s="4">
+        <v>1</v>
+      </c>
+      <c r="D124" s="4">
+        <v>0</v>
+      </c>
+      <c r="E124" s="4">
+        <v>0</v>
+      </c>
+      <c r="F124" s="4">
+        <v>0</v>
+      </c>
+      <c r="G124" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
+      <c r="A125" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C125" s="4">
+        <v>1</v>
+      </c>
+      <c r="D125" s="4">
+        <v>0</v>
+      </c>
+      <c r="E125" s="4">
+        <v>0</v>
+      </c>
+      <c r="F125" s="4">
+        <v>0</v>
+      </c>
+      <c r="G125" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
+      <c r="A126" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C126" s="4">
+        <v>1</v>
+      </c>
+      <c r="D126" s="4">
+        <v>0</v>
+      </c>
+      <c r="E126" s="4">
+        <v>0</v>
+      </c>
+      <c r="F126" s="4">
+        <v>0</v>
+      </c>
+      <c r="G126" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
+      <c r="A127" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C127" s="4">
+        <v>1</v>
+      </c>
+      <c r="D127" s="4">
+        <v>0</v>
+      </c>
+      <c r="E127" s="4">
+        <v>0</v>
+      </c>
+      <c r="F127" s="4">
+        <v>0</v>
+      </c>
+      <c r="G127" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
+      <c r="A128" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C128" s="4">
+        <v>1</v>
+      </c>
+      <c r="D128" s="4">
+        <v>0</v>
+      </c>
+      <c r="E128" s="4">
+        <v>0</v>
+      </c>
+      <c r="F128" s="4">
+        <v>0</v>
+      </c>
+      <c r="G128" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
+      <c r="A129" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C129" s="4">
+        <v>1</v>
+      </c>
+      <c r="D129" s="4">
+        <v>0</v>
+      </c>
+      <c r="E129" s="4">
+        <v>0</v>
+      </c>
+      <c r="F129" s="4">
+        <v>0</v>
+      </c>
+      <c r="G129" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
+      <c r="A130" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C130" s="4">
+        <v>1</v>
+      </c>
+      <c r="D130" s="4">
+        <v>0</v>
+      </c>
+      <c r="E130" s="4">
+        <v>0</v>
+      </c>
+      <c r="F130" s="4">
+        <v>0</v>
+      </c>
+      <c r="G130" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
+      <c r="A131" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C131" s="4">
+        <v>1</v>
+      </c>
+      <c r="D131" s="4">
+        <v>1</v>
+      </c>
+      <c r="E131" s="4">
+        <v>0</v>
+      </c>
+      <c r="F131" s="4">
+        <v>1</v>
+      </c>
+      <c r="G131" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
+      <c r="A132" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C132" s="4">
+        <v>1</v>
+      </c>
+      <c r="D132" s="4">
+        <v>1</v>
+      </c>
+      <c r="E132" s="4">
+        <v>0</v>
+      </c>
+      <c r="F132" s="4">
+        <v>1</v>
+      </c>
+      <c r="G132" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
+      <c r="A133" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C133" s="4">
+        <v>1</v>
+      </c>
+      <c r="D133" s="4">
+        <v>1</v>
+      </c>
+      <c r="E133" s="4">
+        <v>0</v>
+      </c>
+      <c r="F133" s="4">
+        <v>1</v>
+      </c>
+      <c r="G133" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
+      <c r="A134" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C134" s="4">
+        <v>1</v>
+      </c>
+      <c r="D134" s="4">
+        <v>1</v>
+      </c>
+      <c r="E134" s="4">
+        <v>0</v>
+      </c>
+      <c r="F134" s="4">
+        <v>1</v>
+      </c>
+      <c r="G134" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
+      <c r="A135" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C135" s="4">
+        <v>1</v>
+      </c>
+      <c r="D135" s="4">
+        <v>1</v>
+      </c>
+      <c r="E135" s="4">
+        <v>0</v>
+      </c>
+      <c r="F135" s="4">
+        <v>1</v>
+      </c>
+      <c r="G135" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
+      <c r="A136" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C136" s="4">
+        <v>1</v>
+      </c>
+      <c r="D136" s="4">
+        <v>1</v>
+      </c>
+      <c r="E136" s="4">
+        <v>0</v>
+      </c>
+      <c r="F136" s="4">
+        <v>1</v>
+      </c>
+      <c r="G136" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
+      <c r="A137" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C137" s="4">
+        <v>1</v>
+      </c>
+      <c r="D137" s="4">
+        <v>1</v>
+      </c>
+      <c r="E137" s="4">
+        <v>0</v>
+      </c>
+      <c r="F137" s="4">
+        <v>1</v>
+      </c>
+      <c r="G137" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
+      <c r="A138" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C138" s="4">
+        <v>1</v>
+      </c>
+      <c r="D138" s="4">
+        <v>1</v>
+      </c>
+      <c r="E138" s="4">
+        <v>0</v>
+      </c>
+      <c r="F138" s="4">
+        <v>1</v>
+      </c>
+      <c r="G138" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
+      <c r="A139" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C139" s="4">
+        <v>1</v>
+      </c>
+      <c r="D139" s="4">
+        <v>1</v>
+      </c>
+      <c r="E139" s="4">
+        <v>0</v>
+      </c>
+      <c r="F139" s="4">
+        <v>0</v>
+      </c>
+      <c r="G139" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
+      <c r="A140" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C140" s="4">
+        <v>1</v>
+      </c>
+      <c r="D140" s="4">
+        <v>1</v>
+      </c>
+      <c r="E140" s="4">
+        <v>0</v>
+      </c>
+      <c r="F140" s="4">
+        <v>0</v>
+      </c>
+      <c r="G140" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
+      <c r="A141" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C141" s="4">
+        <v>1</v>
+      </c>
+      <c r="D141" s="4">
+        <v>1</v>
+      </c>
+      <c r="E141" s="4">
+        <v>0</v>
+      </c>
+      <c r="F141" s="4">
+        <v>0</v>
+      </c>
+      <c r="G141" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
+      <c r="A142" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C142" s="4">
+        <v>1</v>
+      </c>
+      <c r="D142" s="4">
+        <v>1</v>
+      </c>
+      <c r="E142" s="4">
+        <v>0</v>
+      </c>
+      <c r="F142" s="4">
+        <v>0</v>
+      </c>
+      <c r="G142" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
+      <c r="A143" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C143" s="4">
+        <v>1</v>
+      </c>
+      <c r="D143" s="4">
+        <v>1</v>
+      </c>
+      <c r="E143" s="4">
+        <v>0</v>
+      </c>
+      <c r="F143" s="4">
+        <v>0</v>
+      </c>
+      <c r="G143" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
+      <c r="A144" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C144" s="4">
+        <v>1</v>
+      </c>
+      <c r="D144" s="4">
+        <v>1</v>
+      </c>
+      <c r="E144" s="4">
+        <v>0</v>
+      </c>
+      <c r="F144" s="4">
+        <v>0</v>
+      </c>
+      <c r="G144" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
+      <c r="A145" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C145" s="4">
+        <v>1</v>
+      </c>
+      <c r="D145" s="4">
+        <v>1</v>
+      </c>
+      <c r="E145" s="4">
+        <v>0</v>
+      </c>
+      <c r="F145" s="4">
+        <v>0</v>
+      </c>
+      <c r="G145" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
+      <c r="A146" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C146" s="4">
+        <v>1</v>
+      </c>
+      <c r="D146" s="4">
+        <v>1</v>
+      </c>
+      <c r="E146" s="4">
+        <v>0</v>
+      </c>
+      <c r="F146" s="4">
+        <v>0</v>
+      </c>
+      <c r="G146" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
+      <c r="A147" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C147" s="4">
+        <v>1</v>
+      </c>
+      <c r="D147" s="4">
+        <v>1</v>
+      </c>
+      <c r="E147" s="4">
+        <v>0</v>
+      </c>
+      <c r="F147" s="4">
+        <v>0</v>
+      </c>
+      <c r="G147" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
+      <c r="A148" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C148" s="4">
+        <v>1</v>
+      </c>
+      <c r="D148" s="4">
+        <v>1</v>
+      </c>
+      <c r="E148" s="4">
+        <v>0</v>
+      </c>
+      <c r="F148" s="4">
+        <v>0</v>
+      </c>
+      <c r="G148" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
+      <c r="A149" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C149" s="4">
+        <v>1</v>
+      </c>
+      <c r="D149" s="4">
+        <v>1</v>
+      </c>
+      <c r="E149" s="4">
+        <v>0</v>
+      </c>
+      <c r="F149" s="4">
+        <v>0</v>
+      </c>
+      <c r="G149" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
+      <c r="A150" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C150" s="4">
+        <v>1</v>
+      </c>
+      <c r="D150" s="4">
+        <v>1</v>
+      </c>
+      <c r="E150" s="4">
+        <v>0</v>
+      </c>
+      <c r="F150" s="4">
+        <v>0</v>
+      </c>
+      <c r="G150" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
+      <c r="A151" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C151" s="4">
+        <v>1</v>
+      </c>
+      <c r="D151" s="4">
+        <v>1</v>
+      </c>
+      <c r="E151" s="4">
+        <v>1</v>
+      </c>
+      <c r="F151" s="4">
+        <v>0</v>
+      </c>
+      <c r="G151" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
+      <c r="A152" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C152" s="4">
+        <v>1</v>
+      </c>
+      <c r="D152" s="4">
+        <v>1</v>
+      </c>
+      <c r="E152" s="4">
+        <v>1</v>
+      </c>
+      <c r="F152" s="4">
+        <v>1</v>
+      </c>
+      <c r="G152" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
+      <c r="A153" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C153" s="4">
+        <v>1</v>
+      </c>
+      <c r="D153" s="4">
+        <v>1</v>
+      </c>
+      <c r="E153" s="4">
+        <v>1</v>
+      </c>
+      <c r="F153" s="4">
+        <v>0</v>
+      </c>
+      <c r="G153" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
+      <c r="A154" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C154" s="4">
+        <v>1</v>
+      </c>
+      <c r="D154" s="4">
+        <v>0</v>
+      </c>
+      <c r="E154" s="4">
+        <v>0</v>
+      </c>
+      <c r="F154" s="4">
+        <v>0</v>
+      </c>
+      <c r="G154" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
+      <c r="A155" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C155" s="4">
+        <v>1</v>
+      </c>
+      <c r="D155" s="4">
+        <v>0</v>
+      </c>
+      <c r="E155" s="4">
+        <v>0</v>
+      </c>
+      <c r="F155" s="4">
+        <v>0</v>
+      </c>
+      <c r="G155" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
+      <c r="A156" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C156" s="4">
+        <v>1</v>
+      </c>
+      <c r="D156" s="4">
+        <v>0</v>
+      </c>
+      <c r="E156" s="4">
+        <v>0</v>
+      </c>
+      <c r="F156" s="4">
+        <v>0</v>
+      </c>
+      <c r="G156" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
+      <c r="A157" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C157" s="4">
+        <v>1</v>
+      </c>
+      <c r="D157" s="4">
+        <v>0</v>
+      </c>
+      <c r="E157" s="4">
+        <v>0</v>
+      </c>
+      <c r="F157" s="4">
+        <v>0</v>
+      </c>
+      <c r="G157" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
+      <c r="A158" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C158" s="4">
+        <v>1</v>
+      </c>
+      <c r="D158" s="4">
+        <v>1</v>
+      </c>
+      <c r="E158" s="4">
+        <v>1</v>
+      </c>
+      <c r="F158" s="4">
+        <v>0</v>
+      </c>
+      <c r="G158" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
+      <c r="A159" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C159" s="4">
+        <v>1</v>
+      </c>
+      <c r="D159" s="4">
+        <v>0</v>
+      </c>
+      <c r="E159" s="4">
+        <v>0</v>
+      </c>
+      <c r="F159" s="4">
+        <v>0</v>
+      </c>
+      <c r="G159" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
+      <c r="A160" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C160" s="4">
+        <v>1</v>
+      </c>
+      <c r="D160" s="4">
+        <v>0</v>
+      </c>
+      <c r="E160" s="4">
+        <v>0</v>
+      </c>
+      <c r="F160" s="4">
+        <v>0</v>
+      </c>
+      <c r="G160" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
+      <c r="A161" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C161" s="4">
+        <v>1</v>
+      </c>
+      <c r="D161" s="4">
+        <v>1</v>
+      </c>
+      <c r="E161" s="4">
+        <v>1</v>
+      </c>
+      <c r="F161" s="4">
+        <v>1</v>
+      </c>
+      <c r="G161" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
+      <c r="A162" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C162" s="4">
+        <v>1</v>
+      </c>
+      <c r="D162" s="4">
+        <v>0</v>
+      </c>
+      <c r="E162" s="4">
+        <v>0</v>
+      </c>
+      <c r="F162" s="4">
+        <v>0</v>
+      </c>
+      <c r="G162" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
+      <c r="A163" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C163" s="4">
+        <v>1</v>
+      </c>
+      <c r="D163" s="4">
+        <v>0</v>
+      </c>
+      <c r="E163" s="4">
+        <v>0</v>
+      </c>
+      <c r="F163" s="4">
+        <v>0</v>
+      </c>
+      <c r="G163" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
+      <c r="A164" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C164" s="4">
+        <v>1</v>
+      </c>
+      <c r="D164" s="4">
+        <v>1</v>
+      </c>
+      <c r="E164" s="4">
+        <v>1</v>
+      </c>
+      <c r="F164" s="4">
+        <v>1</v>
+      </c>
+      <c r="G164" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
+      <c r="A165" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C165" s="4">
+        <v>1</v>
+      </c>
+      <c r="D165" s="4">
+        <v>1</v>
+      </c>
+      <c r="E165" s="4">
+        <v>1</v>
+      </c>
+      <c r="F165" s="4">
+        <v>1</v>
+      </c>
+      <c r="G165" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
+      <c r="A166" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C166" s="4">
+        <v>1</v>
+      </c>
+      <c r="D166" s="4">
+        <v>1</v>
+      </c>
+      <c r="E166" s="4">
+        <v>1</v>
+      </c>
+      <c r="F166" s="4">
+        <v>1</v>
+      </c>
+      <c r="G166" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
+      <c r="A167" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C167" s="4">
+        <v>1</v>
+      </c>
+      <c r="D167" s="4">
+        <v>0</v>
+      </c>
+      <c r="E167" s="4">
+        <v>0</v>
+      </c>
+      <c r="F167" s="4">
+        <v>0</v>
+      </c>
+      <c r="G167" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
+      <c r="A168" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C168" s="4">
+        <v>1</v>
+      </c>
+      <c r="D168" s="4">
+        <v>0</v>
+      </c>
+      <c r="E168" s="4">
+        <v>0</v>
+      </c>
+      <c r="F168" s="4">
+        <v>0</v>
+      </c>
+      <c r="G168" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="4"/>
-      <c r="G169" s="4"/>
+      <c r="A169" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C169" s="4">
+        <v>1</v>
+      </c>
+      <c r="D169" s="4">
+        <v>0</v>
+      </c>
+      <c r="E169" s="4">
+        <v>0</v>
+      </c>
+      <c r="F169" s="4">
+        <v>0</v>
+      </c>
+      <c r="G169" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="4"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
+      <c r="A170" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C170" s="4">
+        <v>1</v>
+      </c>
+      <c r="D170" s="4">
+        <v>0</v>
+      </c>
+      <c r="E170" s="4">
+        <v>0</v>
+      </c>
+      <c r="F170" s="4">
+        <v>0</v>
+      </c>
+      <c r="G170" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="4"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
+      <c r="A171" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C171" s="4">
+        <v>1</v>
+      </c>
+      <c r="D171" s="4">
+        <v>0</v>
+      </c>
+      <c r="E171" s="4">
+        <v>0</v>
+      </c>
+      <c r="F171" s="4">
+        <v>0</v>
+      </c>
+      <c r="G171" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="4"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
-      <c r="G172" s="4"/>
+      <c r="A172" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C172" s="4">
+        <v>1</v>
+      </c>
+      <c r="D172" s="4">
+        <v>0</v>
+      </c>
+      <c r="E172" s="4">
+        <v>0</v>
+      </c>
+      <c r="F172" s="4">
+        <v>0</v>
+      </c>
+      <c r="G172" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
+      <c r="A173" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C173" s="4">
+        <v>1</v>
+      </c>
+      <c r="D173" s="4">
+        <v>0</v>
+      </c>
+      <c r="E173" s="4">
+        <v>0</v>
+      </c>
+      <c r="F173" s="4">
+        <v>0</v>
+      </c>
+      <c r="G173" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
+      <c r="A174" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C174" s="4">
+        <v>1</v>
+      </c>
+      <c r="D174" s="4">
+        <v>0</v>
+      </c>
+      <c r="E174" s="4">
+        <v>0</v>
+      </c>
+      <c r="F174" s="4">
+        <v>0</v>
+      </c>
+      <c r="G174" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
+      <c r="A175" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C175" s="4">
+        <v>1</v>
+      </c>
+      <c r="D175" s="4">
+        <v>1</v>
+      </c>
+      <c r="E175" s="4">
+        <v>0</v>
+      </c>
+      <c r="F175" s="4">
+        <v>0</v>
+      </c>
+      <c r="G175" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
+      <c r="B176" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C176" s="4">
+        <v>1</v>
+      </c>
+      <c r="D176" s="4">
+        <v>1</v>
+      </c>
+      <c r="E176" s="4">
+        <v>0</v>
+      </c>
+      <c r="F176" s="4">
+        <v>0</v>
+      </c>
+      <c r="G176" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="4"/>
+      <c r="B177" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C177" s="4">
+        <v>1</v>
+      </c>
+      <c r="D177" s="4">
+        <v>1</v>
+      </c>
+      <c r="E177" s="4">
+        <v>0</v>
+      </c>
+      <c r="F177" s="4">
+        <v>0</v>
+      </c>
+      <c r="G177" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="4"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="4"/>
-      <c r="G178" s="4"/>
+      <c r="B178" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C178" s="4">
+        <v>1</v>
+      </c>
+      <c r="D178" s="4">
+        <v>1</v>
+      </c>
+      <c r="E178" s="4">
+        <v>0</v>
+      </c>
+      <c r="F178" s="4">
+        <v>0</v>
+      </c>
+      <c r="G178" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
-      <c r="G179" s="4"/>
+      <c r="B179" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C179" s="4">
+        <v>1</v>
+      </c>
+      <c r="D179" s="4">
+        <v>1</v>
+      </c>
+      <c r="E179" s="4">
+        <v>0</v>
+      </c>
+      <c r="F179" s="4">
+        <v>0</v>
+      </c>
+      <c r="G179" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="4"/>
-      <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
-      <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
+      <c r="B180" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C180" s="4">
+        <v>1</v>
+      </c>
+      <c r="D180" s="4">
+        <v>1</v>
+      </c>
+      <c r="E180" s="4">
+        <v>0</v>
+      </c>
+      <c r="F180" s="4">
+        <v>0</v>
+      </c>
+      <c r="G180" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="4"/>
-      <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="4"/>
-      <c r="F181" s="4"/>
-      <c r="G181" s="4"/>
+      <c r="B181" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C181" s="4">
+        <v>1</v>
+      </c>
+      <c r="D181" s="4">
+        <v>1</v>
+      </c>
+      <c r="E181" s="4">
+        <v>0</v>
+      </c>
+      <c r="F181" s="4">
+        <v>0</v>
+      </c>
+      <c r="G181" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="4"/>
-      <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
-      <c r="E182" s="4"/>
-      <c r="F182" s="4"/>
-      <c r="G182" s="4"/>
+      <c r="B182" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C182" s="4">
+        <v>1</v>
+      </c>
+      <c r="D182" s="4">
+        <v>1</v>
+      </c>
+      <c r="E182" s="4">
+        <v>0</v>
+      </c>
+      <c r="F182" s="4">
+        <v>0</v>
+      </c>
+      <c r="G182" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="4"/>
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="4"/>
-      <c r="G183" s="4"/>
+      <c r="B183" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C183" s="4">
+        <v>1</v>
+      </c>
+      <c r="D183" s="4">
+        <v>1</v>
+      </c>
+      <c r="E183" s="4">
+        <v>0</v>
+      </c>
+      <c r="F183" s="4">
+        <v>0</v>
+      </c>
+      <c r="G183" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="4"/>
-      <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
-      <c r="E184" s="4"/>
-      <c r="F184" s="4"/>
-      <c r="G184" s="4"/>
+      <c r="B184" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C184" s="4">
+        <v>1</v>
+      </c>
+      <c r="D184" s="4">
+        <v>1</v>
+      </c>
+      <c r="E184" s="4">
+        <v>0</v>
+      </c>
+      <c r="F184" s="4">
+        <v>0</v>
+      </c>
+      <c r="G184" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="4"/>
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
-      <c r="E185" s="4"/>
-      <c r="F185" s="4"/>
-      <c r="G185" s="4"/>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="4"/>
-      <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
-      <c r="E186" s="4"/>
-      <c r="F186" s="4"/>
-      <c r="G186" s="4"/>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="4"/>
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="4"/>
-      <c r="F187" s="4"/>
-      <c r="G187" s="4"/>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="4"/>
-      <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="4"/>
-      <c r="F188" s="4"/>
-      <c r="G188" s="4"/>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="4"/>
-      <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
-      <c r="E189" s="4"/>
-      <c r="F189" s="4"/>
-      <c r="G189" s="4"/>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="4"/>
-      <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
-      <c r="D190" s="4"/>
-      <c r="E190" s="4"/>
-      <c r="F190" s="4"/>
-      <c r="G190" s="4"/>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="4"/>
-      <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="4"/>
-      <c r="F191" s="4"/>
-      <c r="G191" s="4"/>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="4"/>
-      <c r="B192" s="4"/>
-      <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="4"/>
-      <c r="F192" s="4"/>
-      <c r="G192" s="4"/>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="4"/>
-      <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="4"/>
-      <c r="F193" s="4"/>
-      <c r="G193" s="4"/>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="4"/>
-      <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="4"/>
-      <c r="F194" s="4"/>
-      <c r="G194" s="4"/>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="4"/>
-      <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
-      <c r="E195" s="4"/>
-      <c r="F195" s="4"/>
-      <c r="G195" s="4"/>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="4"/>
-      <c r="B196" s="4"/>
-      <c r="C196" s="4"/>
-      <c r="D196" s="4"/>
-      <c r="E196" s="4"/>
-      <c r="F196" s="4"/>
-      <c r="G196" s="4"/>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="4"/>
-      <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
-      <c r="E197" s="4"/>
-      <c r="F197" s="4"/>
-      <c r="G197" s="4"/>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="4"/>
-      <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
-      <c r="D198" s="4"/>
-      <c r="E198" s="4"/>
-      <c r="F198" s="4"/>
-      <c r="G198" s="4"/>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="4"/>
-      <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
-      <c r="D199" s="4"/>
-      <c r="E199" s="4"/>
-      <c r="F199" s="4"/>
-      <c r="G199" s="4"/>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="4"/>
-      <c r="B200" s="4"/>
-      <c r="C200" s="4"/>
-      <c r="D200" s="4"/>
-      <c r="E200" s="4"/>
-      <c r="F200" s="4"/>
-      <c r="G200" s="4"/>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="4"/>
-      <c r="B201" s="4"/>
-      <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
-      <c r="E201" s="4"/>
-      <c r="F201" s="4"/>
-      <c r="G201" s="4"/>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="4"/>
-      <c r="B202" s="4"/>
-      <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
-      <c r="E202" s="4"/>
-      <c r="F202" s="4"/>
-      <c r="G202" s="4"/>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="4"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
-      <c r="G203" s="4"/>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="4"/>
-      <c r="B204" s="4"/>
-      <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="4"/>
-      <c r="G204" s="4"/>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="4"/>
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
-      <c r="E205" s="4"/>
-      <c r="F205" s="4"/>
-      <c r="G205" s="4"/>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="4"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
-      <c r="E206" s="4"/>
-      <c r="F206" s="4"/>
-      <c r="G206" s="4"/>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="4"/>
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
-      <c r="E207" s="4"/>
-      <c r="F207" s="4"/>
-      <c r="G207" s="4"/>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="A208" s="4"/>
-      <c r="B208" s="4"/>
-      <c r="C208" s="4"/>
-      <c r="D208" s="4"/>
-      <c r="E208" s="4"/>
-      <c r="F208" s="4"/>
-      <c r="G208" s="4"/>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="4"/>
-      <c r="B209" s="4"/>
-      <c r="C209" s="4"/>
-      <c r="D209" s="4"/>
-      <c r="E209" s="4"/>
-      <c r="F209" s="4"/>
-      <c r="G209" s="4"/>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="4"/>
-      <c r="B210" s="4"/>
-      <c r="C210" s="4"/>
-      <c r="D210" s="4"/>
-      <c r="E210" s="4"/>
-      <c r="F210" s="4"/>
-      <c r="G210" s="4"/>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="4"/>
-      <c r="B211" s="4"/>
-      <c r="C211" s="4"/>
-      <c r="D211" s="4"/>
-      <c r="E211" s="4"/>
-      <c r="F211" s="4"/>
-      <c r="G211" s="4"/>
-    </row>
-    <row r="212" spans="1:7">
-      <c r="A212" s="4"/>
-      <c r="B212" s="4"/>
-      <c r="C212" s="4"/>
-      <c r="D212" s="4"/>
-      <c r="E212" s="4"/>
-      <c r="F212" s="4"/>
-      <c r="G212" s="4"/>
-    </row>
-    <row r="213" spans="1:7">
-      <c r="A213" s="4"/>
-      <c r="B213" s="4"/>
-      <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
-      <c r="E213" s="4"/>
-      <c r="F213" s="4"/>
-      <c r="G213" s="4"/>
-    </row>
-    <row r="214" spans="1:7">
-      <c r="A214" s="4"/>
-      <c r="B214" s="4"/>
-      <c r="C214" s="4"/>
-      <c r="D214" s="4"/>
-      <c r="E214" s="4"/>
-      <c r="F214" s="4"/>
-      <c r="G214" s="4"/>
-    </row>
-    <row r="215" spans="1:7">
-      <c r="A215" s="4"/>
-      <c r="B215" s="4"/>
-      <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
-      <c r="E215" s="4"/>
-      <c r="F215" s="4"/>
-      <c r="G215" s="4"/>
-    </row>
-    <row r="216" spans="1:7">
-      <c r="A216" s="4"/>
-      <c r="B216" s="4"/>
-      <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
-      <c r="E216" s="4"/>
-      <c r="F216" s="4"/>
-      <c r="G216" s="4"/>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="A217" s="4"/>
-      <c r="B217" s="4"/>
-      <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
-      <c r="E217" s="4"/>
-      <c r="F217" s="4"/>
-      <c r="G217" s="4"/>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="A218" s="4"/>
-      <c r="B218" s="4"/>
-      <c r="C218" s="4"/>
-      <c r="D218" s="4"/>
-      <c r="E218" s="4"/>
-      <c r="F218" s="4"/>
-      <c r="G218" s="4"/>
-    </row>
-    <row r="219" spans="1:7">
-      <c r="A219" s="4"/>
-      <c r="B219" s="4"/>
-      <c r="C219" s="4"/>
-      <c r="D219" s="4"/>
-      <c r="E219" s="4"/>
-      <c r="F219" s="4"/>
-      <c r="G219" s="4"/>
-    </row>
-    <row r="220" spans="1:7">
-      <c r="A220" s="4"/>
-      <c r="B220" s="4"/>
-      <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
-      <c r="E220" s="4"/>
-      <c r="F220" s="4"/>
-      <c r="G220" s="4"/>
-    </row>
-    <row r="221" spans="1:7">
-      <c r="A221" s="4"/>
-      <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
-      <c r="E221" s="4"/>
-      <c r="F221" s="4"/>
-      <c r="G221" s="4"/>
-    </row>
-    <row r="222" spans="1:7">
-      <c r="A222" s="4"/>
-      <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
-      <c r="E222" s="4"/>
-      <c r="F222" s="4"/>
-      <c r="G222" s="4"/>
-    </row>
-    <row r="223" spans="1:7">
-      <c r="A223" s="4"/>
-      <c r="B223" s="4"/>
-      <c r="C223" s="4"/>
-      <c r="D223" s="4"/>
-      <c r="E223" s="4"/>
-      <c r="F223" s="4"/>
-      <c r="G223" s="4"/>
-    </row>
-    <row r="224" spans="1:7">
-      <c r="A224" s="4"/>
-      <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
-      <c r="E224" s="4"/>
-      <c r="F224" s="4"/>
-      <c r="G224" s="4"/>
-    </row>
-    <row r="225" spans="1:7">
-      <c r="A225" s="4"/>
-      <c r="B225" s="4"/>
-      <c r="C225" s="4"/>
-      <c r="D225" s="4"/>
-      <c r="E225" s="4"/>
-      <c r="F225" s="4"/>
-      <c r="G225" s="4"/>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" s="4"/>
-      <c r="B226" s="4"/>
-      <c r="C226" s="4"/>
-      <c r="D226" s="4"/>
-      <c r="E226" s="4"/>
-      <c r="F226" s="4"/>
-      <c r="G226" s="4"/>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227" s="4"/>
-      <c r="B227" s="4"/>
-      <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
-      <c r="E227" s="4"/>
-      <c r="F227" s="4"/>
-      <c r="G227" s="4"/>
-    </row>
-    <row r="228" spans="1:7">
-      <c r="A228" s="4"/>
-      <c r="B228" s="4"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
-      <c r="E228" s="4"/>
-      <c r="F228" s="4"/>
-      <c r="G228" s="4"/>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" s="4"/>
-      <c r="B229" s="4"/>
-      <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
-      <c r="E229" s="4"/>
-      <c r="F229" s="4"/>
-      <c r="G229" s="4"/>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="4"/>
-      <c r="B230" s="4"/>
-      <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
-      <c r="E230" s="4"/>
-      <c r="F230" s="4"/>
-      <c r="G230" s="4"/>
-    </row>
-    <row r="231" spans="1:7">
-      <c r="A231" s="4"/>
-      <c r="B231" s="4"/>
-      <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
-      <c r="E231" s="4"/>
-      <c r="F231" s="4"/>
-      <c r="G231" s="4"/>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" s="5"/>
-      <c r="B232" s="5"/>
-      <c r="C232" s="5"/>
-      <c r="D232" s="5"/>
-      <c r="E232" s="5"/>
-      <c r="F232" s="5"/>
-      <c r="G232" s="5"/>
+      <c r="A185" s="5"/>
+      <c r="B185" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C185" s="5">
+        <v>1</v>
+      </c>
+      <c r="D185" s="5">
+        <v>1</v>
+      </c>
+      <c r="E185" s="5">
+        <v>0</v>
+      </c>
+      <c r="F185" s="5">
+        <v>0</v>
+      </c>
+      <c r="G185" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Backup Database/permission.xlsx
+++ b/Backup Database/permission.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="158">
   <si>
     <t>Controller Name</t>
     <phoneticPr fontId="1"/>
@@ -1084,8 +1084,8 @@
   <dimension ref="A1:G185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A175" sqref="A175:A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5126,7 +5126,9 @@
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="4"/>
+      <c r="A176" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="B176" s="4" t="s">
         <v>150</v>
       </c>
@@ -5147,7 +5149,9 @@
       </c>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="4"/>
+      <c r="A177" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="B177" s="4" t="s">
         <v>151</v>
       </c>
@@ -5168,7 +5172,9 @@
       </c>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="4"/>
+      <c r="A178" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="B178" s="4" t="s">
         <v>152</v>
       </c>
@@ -5189,7 +5195,9 @@
       </c>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="4"/>
+      <c r="A179" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="B179" s="4" t="s">
         <v>153</v>
       </c>
@@ -5210,7 +5218,9 @@
       </c>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="4"/>
+      <c r="A180" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="B180" s="4" t="s">
         <v>154</v>
       </c>
@@ -5231,7 +5241,9 @@
       </c>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="4"/>
+      <c r="A181" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="B181" s="4" t="s">
         <v>155</v>
       </c>
@@ -5252,7 +5264,9 @@
       </c>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="4"/>
+      <c r="A182" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="B182" s="4" t="s">
         <v>156</v>
       </c>
@@ -5273,7 +5287,9 @@
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="4"/>
+      <c r="A183" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="B183" s="4" t="s">
         <v>157</v>
       </c>
@@ -5294,7 +5310,9 @@
       </c>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="4"/>
+      <c r="A184" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="B184" s="4" t="s">
         <v>101</v>
       </c>
@@ -5315,7 +5333,9 @@
       </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="5"/>
+      <c r="A185" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="B185" s="5" t="s">
         <v>102</v>
       </c>

--- a/Backup Database/permission.xlsx
+++ b/Backup Database/permission.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="158">
   <si>
     <t>Controller Name</t>
     <phoneticPr fontId="1"/>
@@ -1081,11 +1081,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A175" sqref="A175:A185"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1677,10 +1677,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -1692,10 +1692,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1703,7 +1703,7 @@
         <v>33</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
@@ -1712,13 +1712,13 @@
         <v>1</v>
       </c>
       <c r="E27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1726,19 +1726,19 @@
         <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
       </c>
       <c r="D28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
       </c>
       <c r="F28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
@@ -1749,13 +1749,13 @@
         <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
       </c>
       <c r="D29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="4">
         <v>0</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -1781,13 +1781,13 @@
         <v>1</v>
       </c>
       <c r="E30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
       </c>
       <c r="G30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1795,7 +1795,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
@@ -1818,7 +1818,7 @@
         <v>38</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -1841,7 +1841,7 @@
         <v>38</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -1864,19 +1864,19 @@
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
       </c>
       <c r="D34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -1887,7 +1887,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -1910,7 +1910,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
@@ -1930,10 +1930,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1945,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="F37" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1956,7 +1956,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
@@ -1979,7 +1979,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="4">
         <v>1</v>
@@ -2002,7 +2002,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="4">
         <v>1</v>
@@ -2025,7 +2025,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -2048,7 +2048,7 @@
         <v>44</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="4">
         <v>1</v>
@@ -2071,7 +2071,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
@@ -2094,7 +2094,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C44" s="4">
         <v>1</v>
@@ -2117,7 +2117,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
@@ -2140,7 +2140,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="4">
         <v>1</v>
@@ -2163,7 +2163,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
@@ -2186,7 +2186,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
@@ -2209,7 +2209,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -2232,7 +2232,7 @@
         <v>44</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -2252,25 +2252,25 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
       </c>
       <c r="D51" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
       </c>
       <c r="G51" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2278,19 +2278,19 @@
         <v>56</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
       </c>
       <c r="D52" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="4">
         <v>1</v>
@@ -2301,7 +2301,7 @@
         <v>56</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -2324,7 +2324,7 @@
         <v>56</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
@@ -2344,22 +2344,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>
       </c>
       <c r="D55" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" s="4">
         <v>1</v>
@@ -2370,7 +2370,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -2382,10 +2382,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2393,7 +2393,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C57" s="4">
         <v>1</v>
@@ -2416,7 +2416,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
@@ -2439,7 +2439,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="4">
         <v>1</v>
@@ -2448,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="4">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C60" s="4">
         <v>1</v>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="4">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="4">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62" s="4">
         <v>1</v>
@@ -2531,7 +2531,7 @@
         <v>57</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C63" s="4">
         <v>1</v>
@@ -2540,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="4">
         <v>0</v>
@@ -2551,22 +2551,22 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C64" s="4">
         <v>1</v>
       </c>
       <c r="D64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" s="4">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C65" s="4">
         <v>1</v>
@@ -2600,13 +2600,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C66" s="4">
         <v>1</v>
       </c>
       <c r="D66" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" s="4">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C67" s="4">
         <v>1</v>
@@ -2632,13 +2632,13 @@
         <v>1</v>
       </c>
       <c r="E67" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="4">
         <v>1</v>
       </c>
       <c r="G67" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2646,7 +2646,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C68" s="4">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C69" s="4">
         <v>1</v>
@@ -2692,7 +2692,7 @@
         <v>65</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C70" s="4">
         <v>1</v>
@@ -2715,7 +2715,7 @@
         <v>65</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" s="4">
         <v>1</v>
@@ -2738,7 +2738,7 @@
         <v>65</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="4">
         <v>1</v>
@@ -2750,10 +2750,10 @@
         <v>1</v>
       </c>
       <c r="F72" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2761,19 +2761,19 @@
         <v>65</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="4">
         <v>1</v>
       </c>
       <c r="D73" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" s="4">
         <v>0</v>
@@ -2784,22 +2784,22 @@
         <v>65</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
       </c>
       <c r="D74" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="4">
         <v>1</v>
       </c>
       <c r="G74" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2807,22 +2807,22 @@
         <v>65</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="4">
         <v>1</v>
       </c>
       <c r="D75" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2830,22 +2830,22 @@
         <v>65</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="4">
         <v>1</v>
       </c>
       <c r="D76" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2853,7 +2853,7 @@
         <v>65</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" s="4">
         <v>1</v>
@@ -2873,25 +2873,25 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" s="4">
         <v>1</v>
       </c>
       <c r="D78" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="4">
         <v>1</v>
       </c>
       <c r="G78" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2899,22 +2899,22 @@
         <v>64</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" s="4">
         <v>1</v>
       </c>
       <c r="D79" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="4">
         <v>1</v>
       </c>
       <c r="G79" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2922,7 +2922,7 @@
         <v>64</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="4">
         <v>1</v>
@@ -2945,22 +2945,22 @@
         <v>64</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81" s="4">
         <v>1</v>
       </c>
       <c r="D81" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="4">
         <v>1</v>
       </c>
       <c r="G81" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2968,7 +2968,7 @@
         <v>64</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" s="4">
         <v>1</v>
@@ -2991,7 +2991,7 @@
         <v>64</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83" s="4">
         <v>1</v>
@@ -3014,7 +3014,7 @@
         <v>64</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" s="4">
         <v>1</v>
@@ -3037,7 +3037,7 @@
         <v>64</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
@@ -3060,7 +3060,7 @@
         <v>64</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" s="4">
         <v>1</v>
@@ -3083,7 +3083,7 @@
         <v>64</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87" s="4">
         <v>1</v>
@@ -3106,22 +3106,22 @@
         <v>64</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
       </c>
       <c r="D88" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" s="4">
         <v>1</v>
       </c>
       <c r="G88" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3129,7 +3129,7 @@
         <v>64</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89" s="4">
         <v>1</v>
@@ -3138,13 +3138,13 @@
         <v>1</v>
       </c>
       <c r="E89" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3152,19 +3152,19 @@
         <v>64</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90" s="4">
         <v>1</v>
       </c>
       <c r="D90" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" s="4">
         <v>0</v>
       </c>
       <c r="F90" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" s="4">
         <v>0</v>
@@ -3175,13 +3175,13 @@
         <v>64</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
       </c>
       <c r="D91" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" s="4">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>64</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="C92" s="4">
         <v>1</v>
       </c>
       <c r="D92" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="4">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>64</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
@@ -3244,7 +3244,7 @@
         <v>64</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C94" s="4">
         <v>1</v>
@@ -3267,7 +3267,7 @@
         <v>64</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -3290,7 +3290,7 @@
         <v>64</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -3310,22 +3310,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="4" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C97" s="4">
         <v>1</v>
       </c>
       <c r="D97" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" s="4">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>93</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C98" s="4">
         <v>1</v>
@@ -3359,7 +3359,7 @@
         <v>93</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
@@ -3368,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" s="4">
         <v>0</v>
@@ -3382,7 +3382,7 @@
         <v>93</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C100" s="4">
         <v>1</v>
@@ -3405,7 +3405,7 @@
         <v>93</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C101" s="4">
         <v>1</v>
@@ -3428,7 +3428,7 @@
         <v>93</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C102" s="4">
         <v>1</v>
@@ -3437,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" s="4">
         <v>0</v>
@@ -3451,7 +3451,7 @@
         <v>93</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C103" s="4">
         <v>1</v>
@@ -3460,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" s="4">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>93</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" s="4">
         <v>1</v>
@@ -3497,7 +3497,7 @@
         <v>93</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C105" s="4">
         <v>1</v>
@@ -3520,7 +3520,7 @@
         <v>93</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C106" s="4">
         <v>1</v>
@@ -3529,7 +3529,7 @@
         <v>1</v>
       </c>
       <c r="E106" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" s="4">
         <v>0</v>
@@ -3540,10 +3540,10 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C107" s="4">
         <v>1</v>
@@ -3555,10 +3555,10 @@
         <v>1</v>
       </c>
       <c r="F107" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3566,19 +3566,19 @@
         <v>103</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C108" s="4">
         <v>1</v>
       </c>
       <c r="D108" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" s="4">
         <v>1</v>
@@ -3589,7 +3589,7 @@
         <v>103</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C109" s="4">
         <v>1</v>
@@ -3612,7 +3612,7 @@
         <v>103</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C110" s="4">
         <v>1</v>
@@ -3632,22 +3632,22 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
       </c>
       <c r="D111" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" s="4">
         <v>1</v>
@@ -3658,19 +3658,19 @@
         <v>105</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
       </c>
       <c r="D112" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" s="4">
         <v>1</v>
@@ -3681,7 +3681,7 @@
         <v>105</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C113" s="4">
         <v>1</v>
@@ -3704,7 +3704,7 @@
         <v>105</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C114" s="4">
         <v>1</v>
@@ -3724,10 +3724,10 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C115" s="4">
         <v>1</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3750,7 +3750,7 @@
         <v>106</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -3773,7 +3773,7 @@
         <v>106</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C117" s="4">
         <v>1</v>
@@ -3796,7 +3796,7 @@
         <v>106</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C118" s="4">
         <v>1</v>
@@ -3819,22 +3819,22 @@
         <v>106</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C119" s="4">
         <v>1</v>
       </c>
       <c r="D119" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3842,7 +3842,7 @@
         <v>106</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C120" s="4">
         <v>1</v>
@@ -3865,45 +3865,45 @@
         <v>106</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C121" s="4">
         <v>1</v>
       </c>
       <c r="D121" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C122" s="4">
         <v>1</v>
       </c>
       <c r="D122" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3911,22 +3911,22 @@
         <v>109</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C123" s="4">
         <v>1</v>
       </c>
       <c r="D123" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3934,7 +3934,7 @@
         <v>109</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C124" s="4">
         <v>1</v>
@@ -3957,7 +3957,7 @@
         <v>109</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C125" s="4">
         <v>1</v>
@@ -3977,10 +3977,10 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C126" s="4">
         <v>1</v>
@@ -4003,7 +4003,7 @@
         <v>110</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C127" s="4">
         <v>1</v>
@@ -4026,7 +4026,7 @@
         <v>110</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C128" s="4">
         <v>1</v>
@@ -4049,7 +4049,7 @@
         <v>110</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C129" s="4">
         <v>1</v>
@@ -4072,7 +4072,7 @@
         <v>110</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C130" s="4">
         <v>1</v>
@@ -4092,22 +4092,22 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C131" s="4">
         <v>1</v>
       </c>
       <c r="D131" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131" s="4">
         <v>0</v>
       </c>
       <c r="F131" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" s="4">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>111</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C132" s="4">
         <v>1</v>
@@ -4141,7 +4141,7 @@
         <v>111</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C133" s="4">
         <v>1</v>
@@ -4164,7 +4164,7 @@
         <v>111</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C134" s="4">
         <v>1</v>
@@ -4187,7 +4187,7 @@
         <v>111</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C135" s="4">
         <v>1</v>
@@ -4210,7 +4210,7 @@
         <v>111</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C136" s="4">
         <v>1</v>
@@ -4233,7 +4233,7 @@
         <v>111</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C137" s="4">
         <v>1</v>
@@ -4256,7 +4256,7 @@
         <v>111</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C138" s="4">
         <v>1</v>
@@ -4276,10 +4276,10 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C139" s="4">
         <v>1</v>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="F139" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139" s="4">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>119</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C140" s="4">
         <v>1</v>
@@ -4325,7 +4325,7 @@
         <v>119</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C141" s="4">
         <v>1</v>
@@ -4348,7 +4348,7 @@
         <v>119</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C142" s="4">
         <v>1</v>
@@ -4371,7 +4371,7 @@
         <v>119</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C143" s="4">
         <v>1</v>
@@ -4394,7 +4394,7 @@
         <v>119</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C144" s="4">
         <v>1</v>
@@ -4417,7 +4417,7 @@
         <v>119</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
@@ -4440,7 +4440,7 @@
         <v>119</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C146" s="4">
         <v>1</v>
@@ -4463,7 +4463,7 @@
         <v>119</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C147" s="4">
         <v>1</v>
@@ -4486,7 +4486,7 @@
         <v>119</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C148" s="4">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         <v>119</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
@@ -4532,7 +4532,7 @@
         <v>119</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C150" s="4">
         <v>1</v>
@@ -4552,10 +4552,10 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="4" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C151" s="4">
         <v>1</v>
@@ -4564,7 +4564,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" s="4">
         <v>0</v>
@@ -4575,10 +4575,10 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="C152" s="4">
         <v>1</v>
@@ -4590,10 +4590,10 @@
         <v>1</v>
       </c>
       <c r="F152" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G152" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4601,7 +4601,7 @@
         <v>132</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C153" s="4">
         <v>1</v>
@@ -4613,10 +4613,10 @@
         <v>1</v>
       </c>
       <c r="F153" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4624,22 +4624,22 @@
         <v>132</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C154" s="4">
         <v>1</v>
       </c>
       <c r="D154" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" s="4">
         <v>0</v>
       </c>
       <c r="G154" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4647,7 +4647,7 @@
         <v>132</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C155" s="4">
         <v>1</v>
@@ -4670,7 +4670,7 @@
         <v>132</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C156" s="4">
         <v>1</v>
@@ -4693,7 +4693,7 @@
         <v>132</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C157" s="4">
         <v>1</v>
@@ -4716,22 +4716,22 @@
         <v>132</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C158" s="4">
         <v>1</v>
       </c>
       <c r="D158" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E158" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158" s="4">
         <v>0</v>
       </c>
       <c r="G158" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4739,22 +4739,22 @@
         <v>132</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C159" s="4">
         <v>1</v>
       </c>
       <c r="D159" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" s="4">
         <v>0</v>
       </c>
       <c r="G159" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4762,7 +4762,7 @@
         <v>132</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C160" s="4">
         <v>1</v>
@@ -4785,19 +4785,19 @@
         <v>132</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C161" s="4">
         <v>1</v>
       </c>
       <c r="D161" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E161" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G161" s="4">
         <v>1</v>
@@ -4808,19 +4808,19 @@
         <v>132</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="C162" s="4">
         <v>1</v>
       </c>
       <c r="D162" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162" s="4">
         <v>1</v>
@@ -4831,7 +4831,7 @@
         <v>132</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C163" s="4">
         <v>1</v>
@@ -4854,19 +4854,19 @@
         <v>132</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="C164" s="4">
         <v>1</v>
       </c>
       <c r="D164" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G164" s="4">
         <v>1</v>
@@ -4877,7 +4877,7 @@
         <v>132</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="C165" s="4">
         <v>1</v>
@@ -4900,7 +4900,7 @@
         <v>132</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="C166" s="4">
         <v>1</v>
@@ -4923,19 +4923,19 @@
         <v>132</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C167" s="4">
         <v>1</v>
       </c>
       <c r="D167" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G167" s="4">
         <v>1</v>
@@ -4946,7 +4946,7 @@
         <v>132</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
@@ -4969,7 +4969,7 @@
         <v>132</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C169" s="4">
         <v>1</v>
@@ -4989,10 +4989,10 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C170" s="4">
         <v>1</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="G170" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5015,7 +5015,7 @@
         <v>145</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="C171" s="4">
         <v>1</v>
@@ -5035,10 +5035,10 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C172" s="4">
         <v>1</v>
@@ -5061,7 +5061,7 @@
         <v>147</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C173" s="4">
         <v>1</v>
@@ -5084,7 +5084,7 @@
         <v>147</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C174" s="4">
         <v>1</v>
@@ -5104,16 +5104,16 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="C175" s="4">
         <v>1</v>
       </c>
       <c r="D175" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175" s="4">
         <v>0</v>
@@ -5130,7 +5130,7 @@
         <v>148</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C176" s="4">
         <v>1</v>
@@ -5153,7 +5153,7 @@
         <v>148</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C177" s="4">
         <v>1</v>
@@ -5176,7 +5176,7 @@
         <v>148</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C178" s="4">
         <v>1</v>
@@ -5199,7 +5199,7 @@
         <v>148</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C179" s="4">
         <v>1</v>
@@ -5222,7 +5222,7 @@
         <v>148</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C180" s="4">
         <v>1</v>
@@ -5245,7 +5245,7 @@
         <v>148</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C181" s="4">
         <v>1</v>
@@ -5268,7 +5268,7 @@
         <v>148</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C182" s="4">
         <v>1</v>
@@ -5291,7 +5291,7 @@
         <v>148</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C183" s="4">
         <v>1</v>
@@ -5314,7 +5314,7 @@
         <v>148</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="C184" s="4">
         <v>1</v>
@@ -5336,22 +5336,45 @@
       <c r="A185" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C185" s="4">
+        <v>1</v>
+      </c>
+      <c r="D185" s="4">
+        <v>1</v>
+      </c>
+      <c r="E185" s="4">
+        <v>0</v>
+      </c>
+      <c r="F185" s="4">
+        <v>0</v>
+      </c>
+      <c r="G185" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B186" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C185" s="5">
-        <v>1</v>
-      </c>
-      <c r="D185" s="5">
-        <v>1</v>
-      </c>
-      <c r="E185" s="5">
-        <v>0</v>
-      </c>
-      <c r="F185" s="5">
-        <v>0</v>
-      </c>
-      <c r="G185" s="5">
+      <c r="C186" s="5">
+        <v>1</v>
+      </c>
+      <c r="D186" s="5">
+        <v>1</v>
+      </c>
+      <c r="E186" s="5">
+        <v>0</v>
+      </c>
+      <c r="F186" s="5">
+        <v>0</v>
+      </c>
+      <c r="G186" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Backup Database/permission.xlsx
+++ b/Backup Database/permission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="8055"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="172">
   <si>
     <t>Controller Name</t>
     <phoneticPr fontId="1"/>
@@ -643,6 +643,62 @@
   </si>
   <si>
     <t>ReturnPurchaseList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>downloadtWarningbyStoreId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getWarningbyStoreId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getWarningbyStoreIdPtv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Delete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>importMinMax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MinMaxOfProductByStore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>downloadMinMaxByStore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AddMinMax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EditMinmax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DownloadTotalReportPartialView</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DownloadWeReportPartialView</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>downloadTotalReport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TotalReport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TotalReportPartialView</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1081,21 +1137,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G186"/>
+  <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A160" sqref="A160:A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="17.875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
@@ -4299,22 +4355,22 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="C140" s="4">
         <v>1</v>
       </c>
       <c r="D140" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E140" s="4">
         <v>0</v>
       </c>
       <c r="F140" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" s="4">
         <v>0</v>
@@ -4322,22 +4378,22 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C141" s="4">
         <v>1</v>
       </c>
       <c r="D141" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141" s="4">
         <v>0</v>
       </c>
       <c r="F141" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141" s="4">
         <v>0</v>
@@ -4345,22 +4401,22 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C142" s="4">
         <v>1</v>
       </c>
       <c r="D142" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142" s="4">
         <v>0</v>
       </c>
       <c r="F142" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142" s="4">
         <v>0</v>
@@ -4368,22 +4424,22 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="C143" s="4">
         <v>1</v>
       </c>
       <c r="D143" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143" s="4">
         <v>0</v>
       </c>
       <c r="F143" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143" s="4">
         <v>0</v>
@@ -4391,22 +4447,22 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="C144" s="4">
         <v>1</v>
       </c>
       <c r="D144" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144" s="4">
         <v>0</v>
       </c>
       <c r="F144" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" s="4">
         <v>0</v>
@@ -4414,22 +4470,22 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
       </c>
       <c r="D145" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145" s="4">
         <v>0</v>
       </c>
       <c r="F145" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" s="4">
         <v>0</v>
@@ -4437,22 +4493,22 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="C146" s="4">
         <v>1</v>
       </c>
       <c r="D146" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" s="4">
         <v>0</v>
       </c>
       <c r="F146" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G146" s="4">
         <v>0</v>
@@ -4460,22 +4516,22 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="C147" s="4">
         <v>1</v>
       </c>
       <c r="D147" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147" s="4">
         <v>0</v>
       </c>
       <c r="F147" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" s="4">
         <v>0</v>
@@ -4483,22 +4539,22 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="C148" s="4">
         <v>1</v>
       </c>
       <c r="D148" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E148" s="4">
         <v>0</v>
       </c>
       <c r="F148" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148" s="4">
         <v>0</v>
@@ -4509,7 +4565,7 @@
         <v>119</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
@@ -4532,7 +4588,7 @@
         <v>119</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C150" s="4">
         <v>1</v>
@@ -4555,7 +4611,7 @@
         <v>119</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C151" s="4">
         <v>1</v>
@@ -4575,10 +4631,10 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="4" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C152" s="4">
         <v>1</v>
@@ -4587,7 +4643,7 @@
         <v>1</v>
       </c>
       <c r="E152" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" s="4">
         <v>0</v>
@@ -4598,10 +4654,10 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="C153" s="4">
         <v>1</v>
@@ -4610,21 +4666,21 @@
         <v>1</v>
       </c>
       <c r="E153" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C154" s="4">
         <v>1</v>
@@ -4633,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="E154" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" s="4">
         <v>0</v>
@@ -4644,16 +4700,16 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C155" s="4">
         <v>1</v>
       </c>
       <c r="D155" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E155" s="4">
         <v>0</v>
@@ -4662,21 +4718,21 @@
         <v>0</v>
       </c>
       <c r="G155" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C156" s="4">
         <v>1</v>
       </c>
       <c r="D156" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" s="4">
         <v>0</v>
@@ -4685,21 +4741,21 @@
         <v>0</v>
       </c>
       <c r="G156" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C157" s="4">
         <v>1</v>
       </c>
       <c r="D157" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" s="4">
         <v>0</v>
@@ -4708,21 +4764,21 @@
         <v>0</v>
       </c>
       <c r="G157" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C158" s="4">
         <v>1</v>
       </c>
       <c r="D158" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" s="4">
         <v>0</v>
@@ -4731,15 +4787,15 @@
         <v>0</v>
       </c>
       <c r="G158" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C159" s="4">
         <v>1</v>
@@ -4748,7 +4804,7 @@
         <v>1</v>
       </c>
       <c r="E159" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" s="4">
         <v>0</v>
@@ -4759,16 +4815,16 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C160" s="4">
         <v>1</v>
       </c>
       <c r="D160" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E160" s="4">
         <v>0</v>
@@ -4777,21 +4833,21 @@
         <v>0</v>
       </c>
       <c r="G160" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="C161" s="4">
         <v>1</v>
       </c>
       <c r="D161" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" s="4">
         <v>0</v>
@@ -4800,15 +4856,15 @@
         <v>0</v>
       </c>
       <c r="G161" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="C162" s="4">
         <v>1</v>
@@ -4817,27 +4873,27 @@
         <v>1</v>
       </c>
       <c r="E162" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="C163" s="4">
         <v>1</v>
       </c>
       <c r="D163" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" s="4">
         <v>0</v>
@@ -4846,21 +4902,21 @@
         <v>0</v>
       </c>
       <c r="G163" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="C164" s="4">
         <v>1</v>
       </c>
       <c r="D164" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" s="4">
         <v>0</v>
@@ -4869,15 +4925,15 @@
         <v>0</v>
       </c>
       <c r="G164" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="C165" s="4">
         <v>1</v>
@@ -4886,21 +4942,21 @@
         <v>1</v>
       </c>
       <c r="E165" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="C166" s="4">
         <v>1</v>
@@ -4912,10 +4968,10 @@
         <v>1</v>
       </c>
       <c r="F166" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4923,7 +4979,7 @@
         <v>132</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="C167" s="4">
         <v>1</v>
@@ -4946,22 +5002,22 @@
         <v>132</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
       </c>
       <c r="D168" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" s="4">
         <v>0</v>
       </c>
       <c r="G168" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4969,7 +5025,7 @@
         <v>132</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C169" s="4">
         <v>1</v>
@@ -4992,7 +5048,7 @@
         <v>132</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C170" s="4">
         <v>1</v>
@@ -5012,10 +5068,10 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C171" s="4">
         <v>1</v>
@@ -5030,15 +5086,15 @@
         <v>0</v>
       </c>
       <c r="G171" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="C172" s="4">
         <v>1</v>
@@ -5053,24 +5109,24 @@
         <v>0</v>
       </c>
       <c r="G172" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="4" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C173" s="4">
         <v>1</v>
       </c>
       <c r="D173" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" s="4">
         <v>0</v>
@@ -5081,10 +5137,10 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="4" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C174" s="4">
         <v>1</v>
@@ -5099,12 +5155,12 @@
         <v>0</v>
       </c>
       <c r="G174" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="4" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>97</v>
@@ -5122,15 +5178,15 @@
         <v>0</v>
       </c>
       <c r="G175" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C176" s="4">
         <v>1</v>
@@ -5139,27 +5195,27 @@
         <v>1</v>
       </c>
       <c r="E176" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G176" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="C177" s="4">
         <v>1</v>
       </c>
       <c r="D177" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177" s="4">
         <v>0</v>
@@ -5168,21 +5224,21 @@
         <v>0</v>
       </c>
       <c r="G177" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="C178" s="4">
         <v>1</v>
       </c>
       <c r="D178" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178" s="4">
         <v>0</v>
@@ -5191,15 +5247,15 @@
         <v>0</v>
       </c>
       <c r="G178" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C179" s="4">
         <v>1</v>
@@ -5208,21 +5264,21 @@
         <v>1</v>
       </c>
       <c r="E179" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="C180" s="4">
         <v>1</v>
@@ -5231,21 +5287,21 @@
         <v>1</v>
       </c>
       <c r="E180" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C181" s="4">
         <v>1</v>
@@ -5254,27 +5310,27 @@
         <v>1</v>
       </c>
       <c r="E181" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C182" s="4">
         <v>1</v>
       </c>
       <c r="D182" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E182" s="4">
         <v>0</v>
@@ -5283,21 +5339,21 @@
         <v>0</v>
       </c>
       <c r="G182" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C183" s="4">
         <v>1</v>
       </c>
       <c r="D183" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E183" s="4">
         <v>0</v>
@@ -5306,21 +5362,21 @@
         <v>0</v>
       </c>
       <c r="G183" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C184" s="4">
         <v>1</v>
       </c>
       <c r="D184" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E184" s="4">
         <v>0</v>
@@ -5329,21 +5385,21 @@
         <v>0</v>
       </c>
       <c r="G184" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="C185" s="4">
         <v>1</v>
       </c>
       <c r="D185" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185" s="4">
         <v>0</v>
@@ -5357,24 +5413,346 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C186" s="4">
+        <v>1</v>
+      </c>
+      <c r="D186" s="4">
+        <v>0</v>
+      </c>
+      <c r="E186" s="4">
+        <v>0</v>
+      </c>
+      <c r="F186" s="4">
+        <v>0</v>
+      </c>
+      <c r="G186" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C187" s="4">
+        <v>1</v>
+      </c>
+      <c r="D187" s="4">
+        <v>0</v>
+      </c>
+      <c r="E187" s="4">
+        <v>0</v>
+      </c>
+      <c r="F187" s="4">
+        <v>0</v>
+      </c>
+      <c r="G187" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C188" s="4">
+        <v>1</v>
+      </c>
+      <c r="D188" s="4">
+        <v>0</v>
+      </c>
+      <c r="E188" s="4">
+        <v>0</v>
+      </c>
+      <c r="F188" s="4">
+        <v>0</v>
+      </c>
+      <c r="G188" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C189" s="4">
+        <v>1</v>
+      </c>
+      <c r="D189" s="4">
+        <v>0</v>
+      </c>
+      <c r="E189" s="4">
+        <v>0</v>
+      </c>
+      <c r="F189" s="4">
+        <v>0</v>
+      </c>
+      <c r="G189" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B190" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C190" s="4">
+        <v>1</v>
+      </c>
+      <c r="D190" s="4">
+        <v>1</v>
+      </c>
+      <c r="E190" s="4">
+        <v>0</v>
+      </c>
+      <c r="F190" s="4">
+        <v>0</v>
+      </c>
+      <c r="G190" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C191" s="4">
+        <v>1</v>
+      </c>
+      <c r="D191" s="4">
+        <v>1</v>
+      </c>
+      <c r="E191" s="4">
+        <v>0</v>
+      </c>
+      <c r="F191" s="4">
+        <v>0</v>
+      </c>
+      <c r="G191" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C192" s="4">
+        <v>1</v>
+      </c>
+      <c r="D192" s="4">
+        <v>1</v>
+      </c>
+      <c r="E192" s="4">
+        <v>0</v>
+      </c>
+      <c r="F192" s="4">
+        <v>0</v>
+      </c>
+      <c r="G192" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C193" s="4">
+        <v>1</v>
+      </c>
+      <c r="D193" s="4">
+        <v>1</v>
+      </c>
+      <c r="E193" s="4">
+        <v>0</v>
+      </c>
+      <c r="F193" s="4">
+        <v>0</v>
+      </c>
+      <c r="G193" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C194" s="4">
+        <v>1</v>
+      </c>
+      <c r="D194" s="4">
+        <v>1</v>
+      </c>
+      <c r="E194" s="4">
+        <v>0</v>
+      </c>
+      <c r="F194" s="4">
+        <v>0</v>
+      </c>
+      <c r="G194" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C195" s="4">
+        <v>1</v>
+      </c>
+      <c r="D195" s="4">
+        <v>1</v>
+      </c>
+      <c r="E195" s="4">
+        <v>0</v>
+      </c>
+      <c r="F195" s="4">
+        <v>0</v>
+      </c>
+      <c r="G195" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C196" s="4">
+        <v>1</v>
+      </c>
+      <c r="D196" s="4">
+        <v>1</v>
+      </c>
+      <c r="E196" s="4">
+        <v>0</v>
+      </c>
+      <c r="F196" s="4">
+        <v>0</v>
+      </c>
+      <c r="G196" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C197" s="4">
+        <v>1</v>
+      </c>
+      <c r="D197" s="4">
+        <v>1</v>
+      </c>
+      <c r="E197" s="4">
+        <v>0</v>
+      </c>
+      <c r="F197" s="4">
+        <v>0</v>
+      </c>
+      <c r="G197" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C198" s="4">
+        <v>1</v>
+      </c>
+      <c r="D198" s="4">
+        <v>1</v>
+      </c>
+      <c r="E198" s="4">
+        <v>0</v>
+      </c>
+      <c r="F198" s="4">
+        <v>0</v>
+      </c>
+      <c r="G198" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C199" s="4">
+        <v>1</v>
+      </c>
+      <c r="D199" s="4">
+        <v>1</v>
+      </c>
+      <c r="E199" s="4">
+        <v>0</v>
+      </c>
+      <c r="F199" s="4">
+        <v>0</v>
+      </c>
+      <c r="G199" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B200" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C186" s="5">
-        <v>1</v>
-      </c>
-      <c r="D186" s="5">
-        <v>1</v>
-      </c>
-      <c r="E186" s="5">
-        <v>0</v>
-      </c>
-      <c r="F186" s="5">
-        <v>0</v>
-      </c>
-      <c r="G186" s="5">
+      <c r="C200" s="5">
+        <v>1</v>
+      </c>
+      <c r="D200" s="5">
+        <v>1</v>
+      </c>
+      <c r="E200" s="5">
+        <v>0</v>
+      </c>
+      <c r="F200" s="5">
+        <v>0</v>
+      </c>
+      <c r="G200" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Backup Database/permission.xlsx
+++ b/Backup Database/permission.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\app\SMS\Backup Database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="180" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="176">
   <si>
     <t>Controller Name</t>
     <phoneticPr fontId="1"/>
@@ -700,6 +705,18 @@
   <si>
     <t>TotalReportPartialView</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NhomSanPham</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>AddNew</t>
+  </si>
+  <si>
+    <t>Edit</t>
   </si>
 </sst>
 </file>
@@ -710,14 +727,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -846,6 +863,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -893,7 +913,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -928,7 +948,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1137,22 +1157,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A160" sqref="A160:A165"/>
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -5737,23 +5757,92 @@
       <c r="A200" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C200" s="5">
-        <v>1</v>
-      </c>
-      <c r="D200" s="5">
-        <v>1</v>
-      </c>
-      <c r="E200" s="5">
-        <v>0</v>
-      </c>
-      <c r="F200" s="5">
-        <v>0</v>
-      </c>
-      <c r="G200" s="5">
-        <v>0</v>
+      <c r="C200" s="4">
+        <v>1</v>
+      </c>
+      <c r="D200" s="4">
+        <v>1</v>
+      </c>
+      <c r="E200" s="4">
+        <v>0</v>
+      </c>
+      <c r="F200" s="4">
+        <v>0</v>
+      </c>
+      <c r="G200" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C201" s="4">
+        <v>1</v>
+      </c>
+      <c r="D201" s="4">
+        <v>0</v>
+      </c>
+      <c r="E201" s="4">
+        <v>0</v>
+      </c>
+      <c r="F201" s="4">
+        <v>0</v>
+      </c>
+      <c r="G201" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C202" s="4">
+        <v>1</v>
+      </c>
+      <c r="D202" s="4">
+        <v>0</v>
+      </c>
+      <c r="E202" s="4">
+        <v>0</v>
+      </c>
+      <c r="F202" s="4">
+        <v>0</v>
+      </c>
+      <c r="G202" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C203" s="5">
+        <v>1</v>
+      </c>
+      <c r="D203" s="5">
+        <v>0</v>
+      </c>
+      <c r="E203" s="5">
+        <v>0</v>
+      </c>
+      <c r="F203" s="5">
+        <v>0</v>
+      </c>
+      <c r="G203" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5769,7 +5858,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5782,7 +5871,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Backup Database/permission.xlsx
+++ b/Backup Database/permission.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="178">
   <si>
     <t>Controller Name</t>
     <phoneticPr fontId="1"/>
@@ -717,6 +717,12 @@
   </si>
   <si>
     <t>Edit</t>
+  </si>
+  <si>
+    <t>InventoryCompared</t>
+  </si>
+  <si>
+    <t>downloadCompared</t>
   </si>
 </sst>
 </file>
@@ -1157,11 +1163,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G203"/>
+  <dimension ref="A1:G206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B206" sqref="B206"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L156" sqref="L156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4582,22 +4588,22 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
       </c>
       <c r="D149" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" s="4">
         <v>0</v>
       </c>
       <c r="F149" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" s="4">
         <v>0</v>
@@ -4605,22 +4611,22 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="C150" s="4">
         <v>1</v>
       </c>
       <c r="D150" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E150" s="4">
         <v>0</v>
       </c>
       <c r="F150" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" s="4">
         <v>0</v>
@@ -4628,22 +4634,22 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="C151" s="4">
         <v>1</v>
       </c>
       <c r="D151" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" s="4">
         <v>0</v>
       </c>
       <c r="F151" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G151" s="4">
         <v>0</v>
@@ -4654,7 +4660,7 @@
         <v>119</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C152" s="4">
         <v>1</v>
@@ -4677,7 +4683,7 @@
         <v>119</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C153" s="4">
         <v>1</v>
@@ -4700,7 +4706,7 @@
         <v>119</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C154" s="4">
         <v>1</v>
@@ -4723,7 +4729,7 @@
         <v>119</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C155" s="4">
         <v>1</v>
@@ -4746,7 +4752,7 @@
         <v>119</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C156" s="4">
         <v>1</v>
@@ -4769,7 +4775,7 @@
         <v>119</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C157" s="4">
         <v>1</v>
@@ -4792,7 +4798,7 @@
         <v>119</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C158" s="4">
         <v>1</v>
@@ -4815,7 +4821,7 @@
         <v>119</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C159" s="4">
         <v>1</v>
@@ -4838,7 +4844,7 @@
         <v>119</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C160" s="4">
         <v>1</v>
@@ -4861,7 +4867,7 @@
         <v>119</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="C161" s="4">
         <v>1</v>
@@ -4884,7 +4890,7 @@
         <v>119</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="C162" s="4">
         <v>1</v>
@@ -4907,7 +4913,7 @@
         <v>119</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="C163" s="4">
         <v>1</v>
@@ -4930,7 +4936,7 @@
         <v>119</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C164" s="4">
         <v>1</v>
@@ -4953,7 +4959,7 @@
         <v>119</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C165" s="4">
         <v>1</v>
@@ -4973,10 +4979,10 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="4" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="C166" s="4">
         <v>1</v>
@@ -4985,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="E166" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166" s="4">
         <v>0</v>
@@ -4996,10 +5002,10 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="C167" s="4">
         <v>1</v>
@@ -5008,21 +5014,21 @@
         <v>1</v>
       </c>
       <c r="E167" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
@@ -5031,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="E168" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" s="4">
         <v>0</v>
@@ -5042,25 +5048,25 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C169" s="4">
         <v>1</v>
       </c>
       <c r="D169" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" s="4">
         <v>0</v>
       </c>
       <c r="G169" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5068,19 +5074,19 @@
         <v>132</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="C170" s="4">
         <v>1</v>
       </c>
       <c r="D170" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170" s="4">
         <v>1</v>
@@ -5091,22 +5097,22 @@
         <v>132</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C171" s="4">
         <v>1</v>
       </c>
       <c r="D171" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171" s="4">
         <v>0</v>
       </c>
       <c r="G171" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5114,7 +5120,7 @@
         <v>132</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C172" s="4">
         <v>1</v>
@@ -5137,22 +5143,22 @@
         <v>132</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C173" s="4">
         <v>1</v>
       </c>
       <c r="D173" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173" s="4">
         <v>0</v>
       </c>
       <c r="G173" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5160,7 +5166,7 @@
         <v>132</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C174" s="4">
         <v>1</v>
@@ -5183,7 +5189,7 @@
         <v>132</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C175" s="4">
         <v>1</v>
@@ -5206,7 +5212,7 @@
         <v>132</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C176" s="4">
         <v>1</v>
@@ -5218,10 +5224,10 @@
         <v>1</v>
       </c>
       <c r="F176" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5229,7 +5235,7 @@
         <v>132</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C177" s="4">
         <v>1</v>
@@ -5252,7 +5258,7 @@
         <v>132</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C178" s="4">
         <v>1</v>
@@ -5275,7 +5281,7 @@
         <v>132</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C179" s="4">
         <v>1</v>
@@ -5298,19 +5304,19 @@
         <v>132</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C180" s="4">
         <v>1</v>
       </c>
       <c r="D180" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180" s="4">
         <v>1</v>
@@ -5321,19 +5327,19 @@
         <v>132</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="C181" s="4">
         <v>1</v>
       </c>
       <c r="D181" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G181" s="4">
         <v>1</v>
@@ -5344,19 +5350,19 @@
         <v>132</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C182" s="4">
         <v>1</v>
       </c>
       <c r="D182" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182" s="4">
         <v>1</v>
@@ -5367,19 +5373,19 @@
         <v>132</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="C183" s="4">
         <v>1</v>
       </c>
       <c r="D183" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183" s="4">
         <v>1</v>
@@ -5390,19 +5396,19 @@
         <v>132</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C184" s="4">
         <v>1</v>
       </c>
       <c r="D184" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184" s="4">
         <v>1</v>
@@ -5410,10 +5416,10 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C185" s="4">
         <v>1</v>
@@ -5428,15 +5434,15 @@
         <v>0</v>
       </c>
       <c r="G185" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -5451,15 +5457,15 @@
         <v>0</v>
       </c>
       <c r="G186" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="4" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="C187" s="4">
         <v>1</v>
@@ -5474,15 +5480,15 @@
         <v>0</v>
       </c>
       <c r="G187" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="C188" s="4">
         <v>1</v>
@@ -5502,10 +5508,10 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C189" s="4">
         <v>1</v>
@@ -5525,16 +5531,16 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="C190" s="4">
         <v>1</v>
       </c>
       <c r="D190" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E190" s="4">
         <v>0</v>
@@ -5548,16 +5554,16 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="C191" s="4">
         <v>1</v>
       </c>
       <c r="D191" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191" s="4">
         <v>0</v>
@@ -5571,16 +5577,16 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="C192" s="4">
         <v>1</v>
       </c>
       <c r="D192" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E192" s="4">
         <v>0</v>
@@ -5597,7 +5603,7 @@
         <v>148</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C193" s="4">
         <v>1</v>
@@ -5620,7 +5626,7 @@
         <v>148</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C194" s="4">
         <v>1</v>
@@ -5643,7 +5649,7 @@
         <v>148</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C195" s="4">
         <v>1</v>
@@ -5666,7 +5672,7 @@
         <v>148</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C196" s="4">
         <v>1</v>
@@ -5689,7 +5695,7 @@
         <v>148</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C197" s="4">
         <v>1</v>
@@ -5712,7 +5718,7 @@
         <v>148</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C198" s="4">
         <v>1</v>
@@ -5735,7 +5741,7 @@
         <v>148</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C199" s="4">
         <v>1</v>
@@ -5758,7 +5764,7 @@
         <v>148</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="C200" s="4">
         <v>1</v>
@@ -5778,16 +5784,16 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="4" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C201" s="4">
         <v>1</v>
       </c>
       <c r="D201" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" s="4">
         <v>0</v>
@@ -5796,52 +5802,121 @@
         <v>0</v>
       </c>
       <c r="G201" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C202" s="4">
+        <v>1</v>
+      </c>
+      <c r="D202" s="4">
+        <v>1</v>
+      </c>
+      <c r="E202" s="4">
+        <v>0</v>
+      </c>
+      <c r="F202" s="4">
+        <v>0</v>
+      </c>
+      <c r="G202" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C203" s="4">
+        <v>1</v>
+      </c>
+      <c r="D203" s="4">
+        <v>1</v>
+      </c>
+      <c r="E203" s="4">
+        <v>0</v>
+      </c>
+      <c r="F203" s="4">
+        <v>0</v>
+      </c>
+      <c r="G203" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B204" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C204" s="4">
+        <v>1</v>
+      </c>
+      <c r="D204" s="4">
+        <v>0</v>
+      </c>
+      <c r="E204" s="4">
+        <v>0</v>
+      </c>
+      <c r="F204" s="4">
+        <v>0</v>
+      </c>
+      <c r="G204" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B205" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C202" s="4">
-        <v>1</v>
-      </c>
-      <c r="D202" s="4">
-        <v>0</v>
-      </c>
-      <c r="E202" s="4">
-        <v>0</v>
-      </c>
-      <c r="F202" s="4">
-        <v>0</v>
-      </c>
-      <c r="G202" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="5" t="s">
+      <c r="C205" s="4">
+        <v>1</v>
+      </c>
+      <c r="D205" s="4">
+        <v>0</v>
+      </c>
+      <c r="E205" s="4">
+        <v>0</v>
+      </c>
+      <c r="F205" s="4">
+        <v>0</v>
+      </c>
+      <c r="G205" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="B206" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C203" s="5">
-        <v>1</v>
-      </c>
-      <c r="D203" s="5">
-        <v>0</v>
-      </c>
-      <c r="E203" s="5">
-        <v>0</v>
-      </c>
-      <c r="F203" s="5">
-        <v>0</v>
-      </c>
-      <c r="G203" s="5">
+      <c r="C206" s="5">
+        <v>1</v>
+      </c>
+      <c r="D206" s="5">
+        <v>0</v>
+      </c>
+      <c r="E206" s="5">
+        <v>0</v>
+      </c>
+      <c r="F206" s="5">
+        <v>0</v>
+      </c>
+      <c r="G206" s="5">
         <v>1</v>
       </c>
     </row>

--- a/Backup Database/permission.xlsx
+++ b/Backup Database/permission.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\app\SMS\Backup Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\sms-store-managment-system\Backup Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1166,8 +1166,8 @@
   <dimension ref="A1:G206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L156" sqref="L156"/>
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E195" sqref="E195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -5612,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="E193" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" s="4">
         <v>0</v>
@@ -5635,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="E194" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194" s="4">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="E195" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" s="4">
         <v>0</v>
@@ -5681,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="E196" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" s="4">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>1</v>
       </c>
       <c r="E197" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197" s="4">
         <v>0</v>
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E198" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" s="4">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>1</v>
       </c>
       <c r="E199" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" s="4">
         <v>0</v>
@@ -5773,7 +5773,7 @@
         <v>1</v>
       </c>
       <c r="E200" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" s="4">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="E201" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" s="4">
         <v>0</v>
@@ -5819,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="E202" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" s="4">
         <v>0</v>
@@ -5842,7 +5842,7 @@
         <v>1</v>
       </c>
       <c r="E203" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" s="4">
         <v>0</v>
